--- a/doc/log-titanX.xlsx
+++ b/doc/log-titanX.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11865"/>
   </bookViews>
   <sheets>
-    <sheet name="log-titanX" sheetId="1" r:id="rId1"/>
+    <sheet name="log" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -683,39 +683,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>TitanX</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.39827114002054093"/>
-          <c:y val="6.3698885292305843E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -729,16 +697,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
@@ -755,7 +723,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -764,52 +732,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'log-titanX'!$A$1:$I$1</c:f>
+              <c:f>log!$A$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.58741699999999997</c:v>
+                  <c:v>0.65618299999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2153330000000002</c:v>
+                  <c:v>3.8651499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4172000000000002</c:v>
+                  <c:v>8.2617840000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.841666999999999</c:v>
+                  <c:v>12.641734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.784966000000001</c:v>
+                  <c:v>15.758883000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.269333</c:v>
+                  <c:v>22.872017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.799719</c:v>
+                  <c:v>30.650832999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.145802000000003</c:v>
+                  <c:v>39.965302000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.077731999999997</c:v>
+                  <c:v>52.083880999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,7 +776,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -829,52 +785,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'log-titanX'!$A$2:$I$2</c:f>
+              <c:f>log!$A$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.203456</c:v>
+                  <c:v>0.20185600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54457599999999995</c:v>
+                  <c:v>0.53126399999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0336320000000001</c:v>
+                  <c:v>1.0265280000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8921600000000001</c:v>
+                  <c:v>1.8811519999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7648000000000001</c:v>
+                  <c:v>2.9344000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8327360000000001</c:v>
+                  <c:v>3.8595199999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4041920000000001</c:v>
+                  <c:v>5.484864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9268159999999996</c:v>
+                  <c:v>6.8768000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5087039999999998</c:v>
+                  <c:v>8.6227199999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,7 +829,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -894,52 +838,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'log-titanX'!$A$3:$I$3</c:f>
+              <c:f>log!$A$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.109376</c:v>
+                  <c:v>0.1096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34604800000000002</c:v>
+                  <c:v>0.32483200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75526400000000005</c:v>
+                  <c:v>0.74060800000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.238208</c:v>
+                  <c:v>1.2263679999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.039936</c:v>
+                  <c:v>2.0449600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.074592</c:v>
+                  <c:v>2.9961600000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0216960000000004</c:v>
+                  <c:v>4.0059839999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2553919999999996</c:v>
+                  <c:v>5.2517760000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5855680000000003</c:v>
+                  <c:v>6.6866240000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,18 +886,47 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603345104"/>
-        <c:axId val="603348240"/>
+        <c:axId val="579701456"/>
+        <c:axId val="579702240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="603345104"/>
+        <c:axId val="579701456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -973,7 +934,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -987,9 +948,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1002,7 +963,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603348240"/>
+        <c:crossAx val="579702240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603348240"/>
+        <c:axId val="579702240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,9 +981,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1048,7 +1010,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1061,12 +1023,22 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603345104"/>
+        <c:crossAx val="579701456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1091,7 +1063,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1111,11 +1083,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1183,25 +1155,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1209,7 +1181,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1217,22 +1189,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1240,14 +1212,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -1284,35 +1256,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1324,30 +1306,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1363,16 +1349,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1380,7 +1365,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1392,17 +1377,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1411,12 +1397,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1430,14 +1416,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1449,13 +1435,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1463,14 +1456,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1482,14 +1476,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1501,31 +1496,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1533,58 +1509,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1592,18 +1528,95 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1612,14 +1625,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1628,7 +1640,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1646,40 +1658,48 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -1690,15 +1710,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1986,96 +2006,96 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>0.58741699999999997</v>
+        <v>0.65618299999999996</v>
       </c>
       <c r="B1">
-        <v>3.2153330000000002</v>
+        <v>3.8651499999999999</v>
       </c>
       <c r="C1">
-        <v>7.4172000000000002</v>
+        <v>8.2617840000000005</v>
       </c>
       <c r="D1">
-        <v>10.841666999999999</v>
+        <v>12.641734</v>
       </c>
       <c r="E1">
-        <v>15.784966000000001</v>
+        <v>15.758883000000001</v>
       </c>
       <c r="F1">
-        <v>23.269333</v>
+        <v>22.872017</v>
       </c>
       <c r="G1">
-        <v>30.799719</v>
+        <v>30.650832999999999</v>
       </c>
       <c r="H1">
-        <v>40.145802000000003</v>
+        <v>39.965302000000001</v>
       </c>
       <c r="I1">
-        <v>51.077731999999997</v>
+        <v>52.083880999999998</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0.203456</v>
+        <v>0.20185600000000001</v>
       </c>
       <c r="B2">
-        <v>0.54457599999999995</v>
+        <v>0.53126399999999996</v>
       </c>
       <c r="C2">
-        <v>1.0336320000000001</v>
+        <v>1.0265280000000001</v>
       </c>
       <c r="D2">
-        <v>1.8921600000000001</v>
+        <v>1.8811519999999999</v>
       </c>
       <c r="E2">
-        <v>2.7648000000000001</v>
+        <v>2.9344000000000001</v>
       </c>
       <c r="F2">
-        <v>3.8327360000000001</v>
+        <v>3.8595199999999998</v>
       </c>
       <c r="G2">
-        <v>5.4041920000000001</v>
+        <v>5.484864</v>
       </c>
       <c r="H2">
-        <v>6.9268159999999996</v>
+        <v>6.8768000000000002</v>
       </c>
       <c r="I2">
-        <v>8.5087039999999998</v>
+        <v>8.6227199999999993</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>0.109376</v>
+        <v>0.1096</v>
       </c>
       <c r="B3">
-        <v>0.34604800000000002</v>
+        <v>0.32483200000000001</v>
       </c>
       <c r="C3">
-        <v>0.75526400000000005</v>
+        <v>0.74060800000000004</v>
       </c>
       <c r="D3">
-        <v>1.238208</v>
+        <v>1.2263679999999999</v>
       </c>
       <c r="E3">
-        <v>2.039936</v>
+        <v>2.0449600000000001</v>
       </c>
       <c r="F3">
-        <v>3.074592</v>
+        <v>2.9961600000000002</v>
       </c>
       <c r="G3">
-        <v>4.0216960000000004</v>
+        <v>4.0059839999999998</v>
       </c>
       <c r="H3">
-        <v>5.2553919999999996</v>
+        <v>5.2517760000000004</v>
       </c>
       <c r="I3">
-        <v>6.5855680000000003</v>
+        <v>6.6866240000000001</v>
       </c>
     </row>
   </sheetData>
